--- a/diagram/Gantt_chart.xlsx
+++ b/diagram/Gantt_chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>표 1</t>
   </si>
@@ -58,16 +58,10 @@
     <t>14주차</t>
   </si>
   <si>
-    <t>시스템 상황 분석</t>
-  </si>
-  <si>
-    <t>유스케이스 분석</t>
-  </si>
-  <si>
-    <t>유스케이스 명세</t>
-  </si>
-  <si>
-    <t>다이어그램 작성</t>
+    <t>요구사항 분석</t>
+  </si>
+  <si>
+    <t>설계</t>
   </si>
   <si>
     <t>DB 연결</t>
@@ -1410,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1550,7 +1544,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" ht="20.85" customHeight="1">
+    <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="12">
         <v>16</v>
       </c>
@@ -1559,9 +1553,9 @@
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -1570,18 +1564,18 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" ht="20.85" customHeight="1">
-      <c r="A7" t="s" s="12">
+      <c r="A7" t="s" s="18">
         <v>17</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1589,26 +1583,28 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" ht="20.85" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="A8" t="s" s="18">
         <v>18</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9"/>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>19</v>
+      </c>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1619,14 +1615,14 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
     <row r="10" ht="20.85" customHeight="1">
-      <c r="A10" t="s" s="18">
-        <v>19</v>
+      <c r="A10" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="15"/>
@@ -1635,17 +1631,17 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" ht="20.85" customHeight="1">
-      <c r="A11" t="s" s="18">
-        <v>20</v>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" t="s" s="12">
+        <v>21</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="15"/>
@@ -1655,16 +1651,16 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="18">
-        <v>21</v>
+      <c r="A12" t="s" s="12">
+        <v>22</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="15"/>
@@ -1673,17 +1669,17 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="20.85" customHeight="1">
+    <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -1695,14 +1691,14 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="14"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
+    <row r="14" ht="20.85" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="15"/>
@@ -1715,66 +1711,9 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" ht="20.85" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
